--- a/biology/Zoologie/Elacatinus_evelynae/Elacatinus_evelynae.xlsx
+++ b/biology/Zoologie/Elacatinus_evelynae/Elacatinus_evelynae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie nez de requin (Elacatinus evelynae ou Gobiosoma evelynae) est une espèce de poissons de la famille des Gobiidae, originaire des Caraïbes mais également présente en aquarium, comme les autres espèces du genre Elacatinus.
 </t>
@@ -511,7 +523,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
